--- a/Proyecto1/FSM1-SC.xlsx
+++ b/Proyecto1/FSM1-SC.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Gil\Desktop\Universidad\4to semestre\Electrónica digital 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Gil\Desktop\Universidad\4to semestre\Electrónica digital 1\Digital_1\Proyecto1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE55A4AD-FC40-42E8-8804-2EE3FE882FB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8BB940D-9234-45CC-92DF-F16FBC496FB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{7094BEF6-A715-4293-B744-0B871A000773}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7094BEF6-A715-4293-B744-0B871A000773}"/>
   </bookViews>
   <sheets>
     <sheet name="FSM VUELTO " sheetId="3" r:id="rId1"/>
@@ -139,15 +139,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -155,13 +161,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -478,749 +508,749 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFC8FEB9-6B22-4819-BD16-66B1FD28699A}">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="E3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="E4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="E5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="E6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="B7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="E7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="B8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="B9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="B10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="B11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="1" t="s">
+      <c r="E11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="B12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="1" t="s">
+      <c r="E12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="B13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="A14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="B14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="A15" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="B15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="1" t="s">
+      <c r="E15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="B16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" s="1" t="s">
+      <c r="E16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="A17" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="B17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="1" t="s">
+      <c r="E17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="A18" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="B18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="B19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F19" s="1" t="s">
+      <c r="E19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="A20" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="B20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="1" t="s">
+      <c r="E20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="A21" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="1" t="s">
+      <c r="B21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="1" t="s">
+      <c r="E21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="A22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="1" t="s">
+      <c r="B22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="A23" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="B23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" s="1" t="s">
+      <c r="E23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="A24" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="1" t="s">
+      <c r="B24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F24" s="1" t="s">
+      <c r="E24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="A25" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="1" t="s">
+      <c r="B25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F25" s="1" t="s">
+      <c r="E25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="A26" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="1" t="s">
+      <c r="B26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F26" s="1" t="s">
+      <c r="E26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="A27" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="B27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F27" s="1" t="s">
+      <c r="E27" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="A28" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="1" t="s">
+      <c r="B28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F28" s="1" t="s">
+      <c r="E28" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="A29" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="1" t="s">
+      <c r="B29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="1" t="s">
+      <c r="E29" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="A30" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="1" t="s">
+      <c r="B30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F30" s="1" t="s">
+      <c r="E30" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="A31" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="B31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F31" s="1" t="s">
+      <c r="E31" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="A32" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="1" t="s">
+      <c r="B32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F32" s="1" t="s">
+      <c r="E32" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="A33" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="1" t="s">
+      <c r="B33" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F33" s="1" t="s">
+      <c r="E33" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="A34" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="1" t="s">
+      <c r="B34" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F34" s="1" t="s">
+      <c r="E34" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F34" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="A35" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" s="1" t="s">
+      <c r="B35" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F35" s="1" t="s">
+      <c r="E35" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="A36" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="1" t="s">
+      <c r="B36" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F36" s="1" t="s">
+      <c r="E36" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F36" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+      <c r="A37" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" s="1" t="s">
+      <c r="B37" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F37" s="1" t="s">
+      <c r="E37" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F37" s="4" t="s">
         <v>4</v>
       </c>
     </row>
